--- a/phan_2/data/lookup_loai_truong.xlsx
+++ b/phan_2/data/lookup_loai_truong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7483899-3F1A-41B9-B1C1-DA198F5549AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B8F4B-573D-482E-9CDE-57CC064829A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2A2CC9F-DF12-4E87-AD63-FCD1734CA64D}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
